--- a/sheets/Programmes.xlsx
+++ b/sheets/Programmes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christian/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au693621\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{703F03BE-5928-EC4A-8C94-BC05C7184F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AD9D19-38D2-4401-8484-B55FD566FC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1000" windowWidth="27280" windowHeight="16340" xr2:uid="{C07F2BDC-6B56-304E-924A-2B22A074ED62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C07F2BDC-6B56-304E-924A-2B22A074ED62}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -47,52 +47,103 @@
     <t>Admission requiements</t>
   </si>
   <si>
-    <t>You must fulfil the following specific admission requirements:
-English B
-Mathematics B
-History B or History of Ideas B or Social Studies B or Contemporary History B</t>
-  </si>
-  <si>
     <t>Cognitive Science</t>
   </si>
   <si>
     <t>Computer Science</t>
   </si>
   <si>
-    <t>You must fulfil the following specific admission requirements:
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Economics and Business Administration</t>
+  </si>
+  <si>
+    <t>IT product development</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>short description</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>Degree_type</t>
+  </si>
+  <si>
+    <t>Duration_years</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 English B
 Mathematics A
-B-level is the Danish subject level, not the grade. We assess your subject levels when you apply.</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Economics and Business Administration</t>
-  </si>
-  <si>
-    <t>You must fulfil the following specific admission requirements:
-English B
-Mathematics B
-History B or History of Ideas B or Social Studies B or Contemporary History B or International Economics B
-B-level is the Danish subject level, not the grade. We assess your subject levels when you apply.</t>
-  </si>
-  <si>
-    <t>IT product development</t>
-  </si>
-  <si>
-    <t>Specific admission requirements
-You must fulfil the following specific admission requirements:
-English B
-Mathematics A
-B-level is the Danish subject level, not the grade. We assess your subject levels when you apply.</t>
+</t>
+  </si>
+  <si>
+    <t>The Cognitive Science programme introduces key theories of cognition and teaches you to investigate the human mind, brain, and behaviour using statistical analysis, programming, and experimental methods.</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Aarhus</t>
+  </si>
+  <si>
+    <t>English B; Mathematics B; History B or History of Ideas B or Social Studies B or Contemporary History B</t>
+  </si>
+  <si>
+    <t>The Computer Science programme focuses on understanding and working with data through programming, algorithmic thinking, and mathematical methods to develop secure, efficient, and user-friendly technological solutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English B; Mathematics A
+</t>
+  </si>
+  <si>
+    <t>fundamental theories of cognition, investigations of the human mind, brain and behaviour, statistical data analysis, computer programming, experimental studies, critically assess previous research results</t>
+  </si>
+  <si>
+    <t>Computer Science, data and information, writing code, problem solving, data analysis for insights, developing new technologies, programming languages, software design and correctness, large-scale data handling, artificial intelligence, visual data methods, preventing cyberattacks, user-friendly IT solutions, secure IT systems, modelling complex problems, mathematical methods, algorithms, security and efficiency of IT system</t>
+  </si>
+  <si>
+    <t>data scientist, extract knowledge from data, evidence-based decisions, large dataset analysis, communicating findings, statistics, data analysis, mathematical modelling, programming, machine learning, high demand across sectors, financial markets, healthcare sector, consumer behaviour, climate change, international English-taught program, same programme as Datavidenskab, same master’s degree.</t>
+  </si>
+  <si>
+    <t>The Data Science programme teaches you to analyse data, apply statistical and machine learning methods, and communicate insights that support evidence-based decisions across a wide range of sectors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English B; Mathematics B; History B or History of Ideas B or Social Studies B or Contemporary History B or International Economics B
+</t>
+  </si>
+  <si>
+    <t>business administration, analyse company activities, value creation, customers employees owners society, identify and formulate issues, solve business challenges, manage and optimise company operations, international focus, English language of instruction, English literature</t>
+  </si>
+  <si>
+    <t>The Business Administration programme teaches you to analyse and optimise company activities to create value and handle business challenges, with an international focus and instruction in English.</t>
+  </si>
+  <si>
+    <t>Aarhus;Herning</t>
+  </si>
+  <si>
+    <t>IT Product Development, designing IT products, programming, constructing IT products, solve problems, create new opportunities, software development, product design, interaction design, prototyping, augmented reality (AR), algorithms, computer architecture, user research, innovative digital and physical products, creativity and logic, physical prototypes, smart home technology, health technology, interactive furniture, online collaboration tools, digital installations for entertainment industry</t>
+  </si>
+  <si>
+    <t>The IT Product Development programme focuses on designing and building innovative digital and physical IT products through software development, prototyping, interaction design, and user research, blending creativity and logic to create new technological opportunities.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +160,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,17 +189,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,21 +550,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C0DB90-BAAE-C14B-9F24-ADFBE012F946}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="1"/>
     <col min="2" max="2" width="43.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11" style="8"/>
+    <col min="7" max="7" width="14.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -500,60 +580,168 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" ht="189">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8">
+        <v>180</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="10">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="204.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8">
+        <v>180</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10">
         <v>3</v>
       </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:9" ht="173.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8">
+        <v>180</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="173.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8">
+        <v>180</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="6" spans="1:9" ht="252">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="8">
+        <v>180</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
